--- a/official_recorded_positivity.xlsx
+++ b/official_recorded_positivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mavos\Documents\git\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578C8C1E-06EC-481D-9A69-3AFAE1016AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83EB51E-6BD5-4010-B5A9-5011552F1157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{DE4B8299-A23D-4DAB-A0F7-25EF1B5BBDF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE4B8299-A23D-4DAB-A0F7-25EF1B5BBDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="104">
   <si>
     <t>County</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Recorded</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -695,18 +698,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83185B54-92E9-49BA-8B99-C069EE8A39C8}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,50 +720,65 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C2">
-        <v>0.155</v>
+        <v>0.185</v>
       </c>
       <c r="D2" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E2">
+        <f>C2-C101</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="C3">
-        <v>0.185</v>
+        <v>0.219</v>
       </c>
       <c r="D3" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">C3-C102</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="C4">
-        <v>1.4E-2</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999982E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -773,1102 +789,1418 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C6">
-        <v>0.107</v>
+        <v>0.11</v>
       </c>
       <c r="D6" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C7">
-        <v>0.187</v>
+        <v>0.183</v>
       </c>
       <c r="D7" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>6.7000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999941E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9">
-        <v>0.14099999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-5.9999999999999776E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C10">
-        <v>0.111</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C11">
-        <v>8.5000000000000006E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C12">
-        <v>0.13200000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C13">
-        <v>0.184</v>
+        <v>0.216</v>
       </c>
       <c r="D13" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="C14">
-        <v>0.215</v>
+        <v>0.251</v>
       </c>
       <c r="D14" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999987E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C15">
-        <v>0.10199999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="D15" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C16">
-        <v>0.126</v>
+        <v>0.129</v>
       </c>
       <c r="D16" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="C17">
-        <v>0.128</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C18">
-        <v>0.107</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C19">
-        <v>7.2999999999999995E-2</v>
+        <v>0.104</v>
       </c>
       <c r="D19" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999915E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C20">
-        <v>0.13800000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="D20" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C21">
-        <v>7.2999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="C22">
-        <v>0.16</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999983E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C23">
-        <v>0.20399999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2.200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C24">
-        <v>0.13600000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="D24" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="C25">
-        <v>9.6000000000000002E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="C26">
-        <v>9.9000000000000005E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C27">
-        <v>0.16900000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="D27" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="C28">
-        <v>0.13</v>
+        <v>0.161</v>
       </c>
       <c r="D28" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C30">
-        <v>8.6999999999999994E-2</v>
+        <v>0.105</v>
       </c>
       <c r="D30" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999932E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C31">
-        <v>0.114</v>
+        <v>0.155</v>
       </c>
       <c r="D31" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C32">
-        <v>0.161</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="C33">
-        <v>9.9000000000000005E-2</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="D33" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C34">
-        <v>0.10199999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="D34" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C35">
-        <v>0.11</v>
+        <v>0.129</v>
       </c>
       <c r="D35" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C36">
-        <v>0.14299999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D36" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999785E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C37">
-        <v>7.2999999999999995E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C38">
-        <v>0.08</v>
+        <v>0.115</v>
       </c>
       <c r="D38" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C39">
-        <v>0.13800000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D39" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="C40">
-        <v>0.13100000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D40" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C41">
-        <v>0.113</v>
+        <v>0.151</v>
       </c>
       <c r="D41" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C42">
-        <v>0.217</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D42" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C43">
-        <v>0.159</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="D43" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C44">
-        <v>5.8000000000000003E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45">
-        <v>0.13400000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D45" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-6.9999999999999785E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C46">
-        <v>0.17899999999999999</v>
+        <v>0.187</v>
       </c>
       <c r="D46" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C47">
-        <v>6.3E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>1.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C48">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D48" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C49">
-        <v>7.8E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D49" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C50">
-        <v>8.8999999999999996E-2</v>
+        <v>0.122</v>
       </c>
       <c r="D50" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C51">
-        <v>0.126</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D51" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C52">
-        <v>0.11799999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D52" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C53">
-        <v>9.6000000000000002E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D53" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="C54">
-        <v>0.112</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D54" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="C55">
-        <v>0.192</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D55" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C56">
-        <v>0.20100000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D56" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C57">
-        <v>0.115</v>
+        <v>0.128</v>
       </c>
       <c r="D57" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C58">
-        <v>8.8999999999999996E-2</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="D58" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999982E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C59">
-        <v>0.124</v>
+        <v>0.126</v>
       </c>
       <c r="D59" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C60">
-        <v>8.2000000000000003E-2</v>
+        <v>0.104</v>
       </c>
       <c r="D60" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C61">
-        <v>9.6000000000000002E-2</v>
+        <v>0.111</v>
       </c>
       <c r="D61" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="C62">
-        <v>0.109</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D62" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C63">
-        <v>5.2999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D63" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C64">
-        <v>9.8000000000000004E-2</v>
+        <v>0.127</v>
       </c>
       <c r="D64" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C65">
-        <v>6.7000000000000004E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D65" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C66">
-        <v>0.14899999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D66" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C67">
-        <v>0.115</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D67" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E100" si="1">C67-C166</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C68">
-        <v>0.121</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D68" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C69">
-        <v>0.22500000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D69" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C70">
-        <v>0.156</v>
+        <v>0.161</v>
       </c>
       <c r="D70" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C71">
-        <v>7.0999999999999994E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D71" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999915E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C72">
-        <v>8.8999999999999996E-2</v>
+        <v>0.104</v>
       </c>
       <c r="D72" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999941E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C73">
-        <v>0.13300000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="D73" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C74">
-        <v>0.14799999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D74" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C75">
-        <v>0.09</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D75" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C76">
-        <v>9.6000000000000002E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D76" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C77">
-        <v>0.14499999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D77" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C78">
-        <v>0.125</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D78" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999758E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C79">
-        <v>9.5000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="D79" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C80">
-        <v>0.10299999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="D80" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C81">
-        <v>0.14199999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D81" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C82">
-        <v>0.17399999999999999</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D82" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>-1.7999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C83">
-        <v>0.10199999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="D83" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1879,108 +2211,140 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="D84" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C85">
-        <v>0.10199999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="D85" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999915E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C86">
-        <v>0.14099999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D86" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C87">
-        <v>0.10299999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D87" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C88">
-        <v>0.111</v>
+        <v>0.114</v>
       </c>
       <c r="D88" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C89">
-        <v>0.13300000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D89" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C90">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="D90" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C91">
-        <v>0.159</v>
+        <v>0.18</v>
       </c>
       <c r="D91" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1991,38 +2355,50 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="D92" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C93">
-        <v>0.17199999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D93" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C94">
-        <v>4.7E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D94" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2033,724 +2409,932 @@
         <v>0.125</v>
       </c>
       <c r="D95" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="C96">
-        <v>0.105</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D96" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C97">
-        <v>7.4999999999999997E-2</v>
+        <v>0.112</v>
       </c>
       <c r="D97" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C98">
-        <v>0.13400000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D98" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>-1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C99">
-        <v>0.14499999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="D99" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C100">
-        <v>0.09</v>
+        <v>0.127</v>
       </c>
       <c r="D100" s="1">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44135</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
       <c r="B101">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C101">
-        <v>0.15</v>
+        <v>0.182</v>
       </c>
       <c r="D101" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E101">
+        <f>C101-C200</f>
+        <v>2.6999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
       <c r="B102">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C102">
-        <v>0.19500000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="D102" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ref="E102:E165" si="2">C102-C201</f>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
       <c r="B103">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C103">
-        <v>0.127</v>
+        <v>0.161</v>
       </c>
       <c r="D103" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="2"/>
+        <v>2.0999999999999991E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
       <c r="B104">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C104">
-        <v>0.124</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D104" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C105">
-        <v>0.112</v>
+        <v>0.114</v>
       </c>
       <c r="D105" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C106">
-        <v>0.193</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D106" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C107">
-        <v>7.0999999999999994E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D107" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
       <c r="B108">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C108">
-        <v>0.13400000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D108" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
       <c r="B109">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C109">
-        <v>0.11</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D109" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="2"/>
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>12</v>
       </c>
       <c r="B110">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C110">
-        <v>7.6999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D110" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
       <c r="B111">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C111">
-        <v>0.128</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D111" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="2"/>
+        <v>1.3999999999999985E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
       <c r="B112">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C112">
-        <v>0.183</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D112" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="2"/>
+        <v>2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>15</v>
       </c>
       <c r="B113">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C113">
-        <v>0.19600000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D113" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000017E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
       <c r="B114">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C114">
-        <v>0.10100000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="D114" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>17</v>
       </c>
       <c r="B115">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C115">
-        <v>0.113</v>
+        <v>0.126</v>
       </c>
       <c r="D115" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>18</v>
       </c>
       <c r="B116">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C116">
-        <v>0.111</v>
+        <v>0.17</v>
       </c>
       <c r="D116" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="2"/>
+        <v>4.200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>19</v>
       </c>
       <c r="B117">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C117">
-        <v>8.5000000000000006E-2</v>
+        <v>0.126</v>
       </c>
       <c r="D117" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>20</v>
       </c>
       <c r="B118">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C118">
-        <v>6.8000000000000005E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D118" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>21</v>
       </c>
       <c r="B119">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C119">
-        <v>0.12</v>
+        <v>0.152</v>
       </c>
       <c r="D119" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="2"/>
+        <v>1.3999999999999985E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>22</v>
       </c>
       <c r="B120">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C120">
-        <v>7.6999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D120" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>23</v>
       </c>
       <c r="B121">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C121">
-        <v>0.16600000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D121" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>24</v>
       </c>
       <c r="B122">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C122">
-        <v>0.19800000000000001</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="D122" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>25</v>
       </c>
       <c r="B123">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C123">
-        <v>0.13700000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="D123" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>26</v>
       </c>
       <c r="B124">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C124">
-        <v>9.5000000000000001E-2</v>
+        <v>0.121</v>
       </c>
       <c r="D124" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="2"/>
+        <v>2.4999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>27</v>
       </c>
       <c r="B125">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C125">
-        <v>9.1999999999999998E-2</v>
+        <v>0.127</v>
       </c>
       <c r="D125" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="2"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>28</v>
       </c>
       <c r="B126">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C126">
-        <v>0.14299999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="D126" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999982E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>29</v>
       </c>
       <c r="B127">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C127">
-        <v>0.10100000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D127" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
       <c r="B128">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C128">
-        <v>0.06</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D128" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="2"/>
+        <v>-2.9999999999999888E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>31</v>
       </c>
       <c r="B129">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C129">
-        <v>8.4000000000000005E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D129" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>32</v>
       </c>
       <c r="B130">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="C130">
-        <v>9.6000000000000002E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D130" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>33</v>
       </c>
       <c r="B131">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C131">
-        <v>0.154</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D131" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999982E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>34</v>
       </c>
       <c r="B132">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="C132">
-        <v>7.4999999999999997E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D132" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999982E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>35</v>
       </c>
       <c r="B133">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C133">
-        <v>0.1</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D133" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>-4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>36</v>
       </c>
       <c r="B134">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C134">
-        <v>0.109</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D134" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>37</v>
       </c>
       <c r="B135">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C135">
-        <v>0.13700000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D135" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>38</v>
       </c>
       <c r="B136">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C136">
-        <v>7.8E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D136" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>39</v>
       </c>
       <c r="B137">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C137">
-        <v>0.09</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D137" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>40</v>
       </c>
       <c r="B138">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C138">
-        <v>0.11799999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="D138" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>41</v>
       </c>
       <c r="B139">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C139">
-        <v>0.115</v>
+        <v>0.159</v>
       </c>
       <c r="D139" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>42</v>
       </c>
       <c r="B140">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C140">
-        <v>0.111</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D140" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999985E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>43</v>
       </c>
       <c r="B141">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C141">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
       <c r="D141" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>44</v>
       </c>
       <c r="B142">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C142">
-        <v>0.154</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D142" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>45</v>
       </c>
       <c r="B143">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C143">
-        <v>7.2999999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D143" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>46</v>
       </c>
       <c r="B144">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C144">
-        <v>0.13400000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D144" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999793E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>47</v>
       </c>
       <c r="B145">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C145">
-        <v>0.17299999999999999</v>
+        <v>0.192</v>
       </c>
       <c r="D145" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>48</v>
       </c>
       <c r="B146">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C146">
-        <v>6.7000000000000004E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D146" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>49</v>
       </c>
@@ -2761,108 +3345,140 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="D147" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>50</v>
       </c>
       <c r="B148">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C148">
-        <v>6.9000000000000006E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D148" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999932E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>51</v>
       </c>
       <c r="B149">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C149">
-        <v>7.3999999999999996E-2</v>
+        <v>0.109</v>
       </c>
       <c r="D149" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>52</v>
       </c>
       <c r="B150">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C150">
-        <v>0.1</v>
+        <v>0.156</v>
       </c>
       <c r="D150" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>53</v>
       </c>
       <c r="B151">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C151">
-        <v>0.113</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D151" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>54</v>
       </c>
       <c r="B152">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C152">
-        <v>8.7999999999999995E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D152" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>55</v>
       </c>
       <c r="B153">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="C153">
-        <v>0.1</v>
+        <v>0.161</v>
       </c>
       <c r="D153" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>56</v>
       </c>
       <c r="B154">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C154">
-        <v>0.19</v>
+        <v>0.223</v>
       </c>
       <c r="D154" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>57</v>
       </c>
@@ -2873,622 +3489,3970 @@
         <v>0.216</v>
       </c>
       <c r="D155" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>58</v>
       </c>
       <c r="B156">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C156">
-        <v>9.5000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D156" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>59</v>
       </c>
       <c r="B157">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C157">
-        <v>7.5999999999999998E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D157" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>60</v>
       </c>
       <c r="B158">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C158">
-        <v>0.112</v>
+        <v>0.121</v>
       </c>
       <c r="D158" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>61</v>
       </c>
       <c r="B159">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C159">
-        <v>7.8E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D159" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>62</v>
       </c>
       <c r="B160">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C160">
-        <v>8.6999999999999994E-2</v>
+        <v>0.105</v>
       </c>
       <c r="D160" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999941E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>63</v>
       </c>
       <c r="B161">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C161">
-        <v>0.10299999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="D161" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>64</v>
       </c>
       <c r="B162">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C162">
-        <v>4.9000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D162" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>65</v>
       </c>
       <c r="B163">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C163">
-        <v>9.6000000000000002E-2</v>
+        <v>0.109</v>
       </c>
       <c r="D163" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>66</v>
       </c>
       <c r="B164">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C164">
-        <v>5.8999999999999997E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D164" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999932E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>67</v>
       </c>
       <c r="B165">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C165">
-        <v>0.14399999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="D165" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>68</v>
       </c>
       <c r="B166">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C166">
-        <v>0.112</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D166" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E166">
+        <f t="shared" ref="E166:E229" si="3">C166-C265</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>69</v>
       </c>
       <c r="B167">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C167">
-        <v>0.122</v>
+        <v>0.128</v>
       </c>
       <c r="D167" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>70</v>
       </c>
       <c r="B168">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C168">
-        <v>0.215</v>
+        <v>0.214</v>
       </c>
       <c r="D168" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="3"/>
+        <v>-1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>71</v>
       </c>
       <c r="B169">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C169">
-        <v>0.13100000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="D169" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>72</v>
       </c>
       <c r="B170">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C170">
-        <v>7.5999999999999998E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D170" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999999879E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>73</v>
       </c>
       <c r="B171">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C171">
-        <v>8.1000000000000003E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D171" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>74</v>
       </c>
       <c r="B172">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C172">
-        <v>0.122</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D172" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999983E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>75</v>
       </c>
       <c r="B173">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C173">
-        <v>0.14000000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="D173" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>76</v>
       </c>
       <c r="B174">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C174">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D174" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="3"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>77</v>
       </c>
       <c r="B175">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C175">
-        <v>9.8000000000000004E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D175" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>78</v>
       </c>
       <c r="B176">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C176">
-        <v>0.14399999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D176" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="3"/>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>79</v>
       </c>
       <c r="B177">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C177">
-        <v>0.11799999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D177" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>80</v>
       </c>
       <c r="B178">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C178">
-        <v>8.6999999999999994E-2</v>
+        <v>0.104</v>
       </c>
       <c r="D178" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999941E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>81</v>
       </c>
       <c r="B179">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C179">
-        <v>0.113</v>
+        <v>0.121</v>
       </c>
       <c r="D179" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>82</v>
       </c>
       <c r="B180">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C180">
-        <v>0.129</v>
+        <v>0.153</v>
       </c>
       <c r="D180" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="3"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>83</v>
       </c>
       <c r="B181">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C181">
-        <v>0.16800000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D181" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="3"/>
+        <v>-2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>84</v>
       </c>
       <c r="B182">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C182">
-        <v>6.2E-2</v>
+        <v>0.11</v>
       </c>
       <c r="D182" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>85</v>
       </c>
       <c r="B183">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C183">
-        <v>0.13100000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="D183" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="3"/>
+        <v>-9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>86</v>
       </c>
       <c r="B184">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C184">
-        <v>0.10100000000000001</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D184" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="3"/>
+        <v>-2.9999999999999888E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>87</v>
       </c>
       <c r="B185">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C185">
-        <v>0.154</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D185" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>88</v>
       </c>
       <c r="B186">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C186">
-        <v>8.3000000000000004E-2</v>
+        <v>0.124</v>
       </c>
       <c r="D186" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>89</v>
       </c>
       <c r="B187">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C187">
-        <v>0.122</v>
+        <v>0.129</v>
       </c>
       <c r="D187" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>90</v>
       </c>
       <c r="B188">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C188">
-        <v>0.122</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D188" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="3"/>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>91</v>
       </c>
       <c r="B189">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C189">
-        <v>0.14299999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D189" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>92</v>
       </c>
       <c r="B190">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C190">
-        <v>0.15</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D190" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>93</v>
       </c>
       <c r="B191">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C191">
-        <v>0.13100000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D191" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>94</v>
       </c>
       <c r="B192">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C192">
-        <v>0.16300000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="D192" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>95</v>
       </c>
       <c r="B193">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C193">
-        <v>6.9000000000000006E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D193" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>96</v>
       </c>
       <c r="B194">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C194">
-        <v>0.11</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D194" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>97</v>
       </c>
       <c r="B195">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="C195">
-        <v>9.8000000000000004E-2</v>
+        <v>0.186</v>
       </c>
       <c r="D195" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="3"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>98</v>
       </c>
       <c r="B196">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C196">
-        <v>6.8000000000000005E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D196" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>99</v>
       </c>
       <c r="B197">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C197">
-        <v>0.113</v>
+        <v>0.129</v>
       </c>
       <c r="D197" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>100</v>
       </c>
       <c r="B198">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C198">
-        <v>0.14799999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D198" s="1">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44134</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>101</v>
       </c>
       <c r="B199">
+        <v>116</v>
+      </c>
+      <c r="C199">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D199" s="1">
+        <v>44134</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="3"/>
+        <v>2.6000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200">
+        <v>155</v>
+      </c>
+      <c r="C200">
+        <v>0.155</v>
+      </c>
+      <c r="D200" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201">
+        <v>185</v>
+      </c>
+      <c r="C201">
+        <v>0.185</v>
+      </c>
+      <c r="D201" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <v>140</v>
+      </c>
+      <c r="C202">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D202" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="3"/>
+        <v>1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203">
+        <v>136</v>
+      </c>
+      <c r="C203">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D203" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204">
+        <v>107</v>
+      </c>
+      <c r="C204">
+        <v>0.107</v>
+      </c>
+      <c r="D204" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>187</v>
+      </c>
+      <c r="C205">
+        <v>0.187</v>
+      </c>
+      <c r="D205" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="3"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206">
+        <v>67</v>
+      </c>
+      <c r="C206">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D206" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="3"/>
+        <v>-3.9999999999999897E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207">
+        <v>141</v>
+      </c>
+      <c r="C207">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D207" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999785E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208">
+        <v>111</v>
+      </c>
+      <c r="C208">
+        <v>0.111</v>
+      </c>
+      <c r="D208" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209">
+        <v>85</v>
+      </c>
+      <c r="C209">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D209" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210">
+        <v>132</v>
+      </c>
+      <c r="C210">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D210" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211">
+        <v>184</v>
+      </c>
+      <c r="C211">
+        <v>0.184</v>
+      </c>
+      <c r="D211" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212">
+        <v>215</v>
+      </c>
+      <c r="C212">
+        <v>0.215</v>
+      </c>
+      <c r="D212" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="3"/>
+        <v>1.8999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213">
+        <v>102</v>
+      </c>
+      <c r="C213">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D213" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>9.9999999999998701E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214">
+        <v>126</v>
+      </c>
+      <c r="C214">
+        <v>0.126</v>
+      </c>
+      <c r="D214" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215">
+        <v>128</v>
+      </c>
+      <c r="C215">
+        <v>0.128</v>
+      </c>
+      <c r="D215" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216">
+        <v>107</v>
+      </c>
+      <c r="C216">
+        <v>0.107</v>
+      </c>
+      <c r="D216" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>2.1999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217">
+        <v>73</v>
+      </c>
+      <c r="C217">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D217" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>21</v>
+      </c>
+      <c r="B218">
+        <v>138</v>
+      </c>
+      <c r="C218">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D218" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219">
+        <v>73</v>
+      </c>
+      <c r="C219">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D219" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="3"/>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220">
+        <v>160</v>
+      </c>
+      <c r="C220">
+        <v>0.16</v>
+      </c>
+      <c r="D220" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="3"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>24</v>
+      </c>
+      <c r="B221">
+        <v>204</v>
+      </c>
+      <c r="C221">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="D221" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="3"/>
+        <v>5.9999999999999776E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>25</v>
+      </c>
+      <c r="B222">
+        <v>136</v>
+      </c>
+      <c r="C222">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D222" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>26</v>
+      </c>
+      <c r="B223">
+        <v>96</v>
+      </c>
+      <c r="C223">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D223" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>27</v>
+      </c>
+      <c r="B224">
+        <v>99</v>
+      </c>
+      <c r="C224">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D224" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225">
+        <v>169</v>
+      </c>
+      <c r="C225">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D225" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="3"/>
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>29</v>
+      </c>
+      <c r="B226">
+        <v>130</v>
+      </c>
+      <c r="C226">
+        <v>0.13</v>
+      </c>
+      <c r="D226" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="3"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>30</v>
+      </c>
+      <c r="B227">
+        <v>87</v>
+      </c>
+      <c r="C227">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D227" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="3"/>
+        <v>2.6999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>31</v>
+      </c>
+      <c r="B228">
+        <v>87</v>
+      </c>
+      <c r="C228">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D228" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999888E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>32</v>
+      </c>
+      <c r="B229">
+        <v>114</v>
+      </c>
+      <c r="C229">
+        <v>0.114</v>
+      </c>
+      <c r="D229" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>33</v>
+      </c>
+      <c r="B230">
+        <v>161</v>
+      </c>
+      <c r="C230">
+        <v>0.161</v>
+      </c>
+      <c r="D230" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E230">
+        <f t="shared" ref="E230:E293" si="4">C230-C329</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>34</v>
+      </c>
+      <c r="B231">
+        <v>99</v>
+      </c>
+      <c r="C231">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D231" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="4"/>
+        <v>2.4000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>35</v>
+      </c>
+      <c r="B232">
+        <v>102</v>
+      </c>
+      <c r="C232">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D232" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999879E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>36</v>
+      </c>
+      <c r="B233">
+        <v>110</v>
+      </c>
+      <c r="C233">
+        <v>0.11</v>
+      </c>
+      <c r="D233" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>37</v>
+      </c>
+      <c r="B234">
+        <v>143</v>
+      </c>
+      <c r="C234">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D234" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999776E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>38</v>
+      </c>
+      <c r="B235">
+        <v>73</v>
+      </c>
+      <c r="C235">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D235" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>39</v>
+      </c>
+      <c r="B236">
+        <v>80</v>
+      </c>
+      <c r="C236">
+        <v>0.08</v>
+      </c>
+      <c r="D236" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="4"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>40</v>
+      </c>
+      <c r="B237">
+        <v>138</v>
+      </c>
+      <c r="C237">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D237" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>41</v>
+      </c>
+      <c r="B238">
+        <v>131</v>
+      </c>
+      <c r="C238">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D238" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="4"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>42</v>
+      </c>
+      <c r="B239">
+        <v>113</v>
+      </c>
+      <c r="C239">
+        <v>0.113</v>
+      </c>
+      <c r="D239" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>43</v>
+      </c>
+      <c r="B240">
+        <v>217</v>
+      </c>
+      <c r="C240">
+        <v>0.217</v>
+      </c>
+      <c r="D240" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>44</v>
+      </c>
+      <c r="B241">
+        <v>159</v>
+      </c>
+      <c r="C241">
+        <v>0.159</v>
+      </c>
+      <c r="D241" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>45</v>
+      </c>
+      <c r="B242">
+        <v>58</v>
+      </c>
+      <c r="C242">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D242" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="4"/>
+        <v>-1.4999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>46</v>
+      </c>
+      <c r="B243">
+        <v>134</v>
+      </c>
+      <c r="C243">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D243" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>47</v>
+      </c>
+      <c r="B244">
+        <v>179</v>
+      </c>
+      <c r="C244">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D244" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245">
+        <v>63</v>
+      </c>
+      <c r="C245">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D245" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="4"/>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>49</v>
+      </c>
+      <c r="B246">
+        <v>70</v>
+      </c>
+      <c r="C246">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D246" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="4"/>
+        <v>-6.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>50</v>
+      </c>
+      <c r="B247">
+        <v>78</v>
+      </c>
+      <c r="C247">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D247" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999941E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>51</v>
+      </c>
+      <c r="B248">
+        <v>89</v>
+      </c>
+      <c r="C248">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D248" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>52</v>
+      </c>
+      <c r="B249">
+        <v>126</v>
+      </c>
+      <c r="C249">
+        <v>0.126</v>
+      </c>
+      <c r="D249" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="4"/>
+        <v>2.5999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>53</v>
+      </c>
+      <c r="B250">
+        <v>118</v>
+      </c>
+      <c r="C250">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D250" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="4"/>
+        <v>4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>54</v>
+      </c>
+      <c r="B251">
+        <v>96</v>
+      </c>
+      <c r="C251">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D251" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>55</v>
+      </c>
+      <c r="B252">
+        <v>112</v>
+      </c>
+      <c r="C252">
+        <v>0.112</v>
+      </c>
+      <c r="D252" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>56</v>
+      </c>
+      <c r="B253">
+        <v>192</v>
+      </c>
+      <c r="C253">
+        <v>0.192</v>
+      </c>
+      <c r="D253" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>57</v>
+      </c>
+      <c r="B254">
+        <v>201</v>
+      </c>
+      <c r="C254">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D254" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="4"/>
+        <v>-1.4999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>58</v>
+      </c>
+      <c r="B255">
+        <v>115</v>
+      </c>
+      <c r="C255">
+        <v>0.115</v>
+      </c>
+      <c r="D255" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>59</v>
+      </c>
+      <c r="B256">
+        <v>89</v>
+      </c>
+      <c r="C256">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D256" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="4"/>
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>60</v>
+      </c>
+      <c r="B257">
+        <v>124</v>
+      </c>
+      <c r="C257">
+        <v>0.124</v>
+      </c>
+      <c r="D257" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>61</v>
+      </c>
+      <c r="B258">
+        <v>82</v>
+      </c>
+      <c r="C258">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D258" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>62</v>
+      </c>
+      <c r="B259">
+        <v>96</v>
+      </c>
+      <c r="C259">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D259" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="4"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>63</v>
+      </c>
+      <c r="B260">
+        <v>109</v>
+      </c>
+      <c r="C260">
+        <v>0.109</v>
+      </c>
+      <c r="D260" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>64</v>
+      </c>
+      <c r="B261">
+        <v>53</v>
+      </c>
+      <c r="C261">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D261" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="4"/>
+        <v>3.9999999999999966E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>65</v>
+      </c>
+      <c r="B262">
+        <v>98</v>
+      </c>
+      <c r="C262">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D262" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>66</v>
+      </c>
+      <c r="B263">
+        <v>67</v>
+      </c>
+      <c r="C263">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D263" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>67</v>
+      </c>
+      <c r="B264">
+        <v>149</v>
+      </c>
+      <c r="C264">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D264" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>68</v>
+      </c>
+      <c r="B265">
+        <v>115</v>
+      </c>
+      <c r="C265">
+        <v>0.115</v>
+      </c>
+      <c r="D265" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>69</v>
+      </c>
+      <c r="B266">
+        <v>121</v>
+      </c>
+      <c r="C266">
+        <v>0.121</v>
+      </c>
+      <c r="D266" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>70</v>
+      </c>
+      <c r="B267">
+        <v>225</v>
+      </c>
+      <c r="C267">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D267" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>71</v>
+      </c>
+      <c r="B268">
+        <v>156</v>
+      </c>
+      <c r="C268">
+        <v>0.156</v>
+      </c>
+      <c r="D268" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="4"/>
+        <v>2.4999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>72</v>
+      </c>
+      <c r="B269">
+        <v>71</v>
+      </c>
+      <c r="C269">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D269" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="4"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>73</v>
+      </c>
+      <c r="B270">
+        <v>89</v>
+      </c>
+      <c r="C270">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D270" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="4"/>
+        <v>7.9999999999999932E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>74</v>
+      </c>
+      <c r="B271">
+        <v>133</v>
+      </c>
+      <c r="C271">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D271" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="4"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>75</v>
+      </c>
+      <c r="B272">
+        <v>148</v>
+      </c>
+      <c r="C272">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D272" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="4"/>
+        <v>7.9999999999999793E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>76</v>
       </c>
-      <c r="C199">
+      <c r="B273">
+        <v>90</v>
+      </c>
+      <c r="C273">
+        <v>0.09</v>
+      </c>
+      <c r="D273" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="4"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>77</v>
+      </c>
+      <c r="B274">
+        <v>96</v>
+      </c>
+      <c r="C274">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D274" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>78</v>
+      </c>
+      <c r="B275">
+        <v>145</v>
+      </c>
+      <c r="C275">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D275" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>79</v>
+      </c>
+      <c r="B276">
+        <v>125</v>
+      </c>
+      <c r="C276">
+        <v>0.125</v>
+      </c>
+      <c r="D276" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>80</v>
+      </c>
+      <c r="B277">
+        <v>95</v>
+      </c>
+      <c r="C277">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D277" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>81</v>
+      </c>
+      <c r="B278">
+        <v>103</v>
+      </c>
+      <c r="C278">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D278" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>82</v>
+      </c>
+      <c r="B279">
+        <v>142</v>
+      </c>
+      <c r="C279">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D279" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="4"/>
+        <v>1.2999999999999984E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>83</v>
+      </c>
+      <c r="B280">
+        <v>174</v>
+      </c>
+      <c r="C280">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D280" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999776E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>84</v>
+      </c>
+      <c r="B281">
+        <v>102</v>
+      </c>
+      <c r="C281">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D281" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="4"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>85</v>
+      </c>
+      <c r="B282">
+        <v>131</v>
+      </c>
+      <c r="C282">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D282" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>86</v>
+      </c>
+      <c r="B283">
+        <v>102</v>
+      </c>
+      <c r="C283">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D283" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="4"/>
+        <v>9.9999999999998701E-4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>87</v>
+      </c>
+      <c r="B284">
+        <v>141</v>
+      </c>
+      <c r="C284">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D284" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="4"/>
+        <v>-1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>88</v>
+      </c>
+      <c r="B285">
+        <v>103</v>
+      </c>
+      <c r="C285">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D285" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="4"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>89</v>
+      </c>
+      <c r="B286">
+        <v>111</v>
+      </c>
+      <c r="C286">
+        <v>0.111</v>
+      </c>
+      <c r="D286" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="4"/>
+        <v>-1.0999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>90</v>
+      </c>
+      <c r="B287">
+        <v>133</v>
+      </c>
+      <c r="C287">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D287" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="4"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>91</v>
+      </c>
+      <c r="B288">
+        <v>150</v>
+      </c>
+      <c r="C288">
+        <v>0.15</v>
+      </c>
+      <c r="D288" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>92</v>
+      </c>
+      <c r="B289">
+        <v>159</v>
+      </c>
+      <c r="C289">
+        <v>0.159</v>
+      </c>
+      <c r="D289" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="4"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>93</v>
+      </c>
+      <c r="B290">
+        <v>146</v>
+      </c>
+      <c r="C290">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D290" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999986E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>94</v>
+      </c>
+      <c r="B291">
+        <v>172</v>
+      </c>
+      <c r="C291">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D291" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999802E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>95</v>
+      </c>
+      <c r="B292">
+        <v>47</v>
+      </c>
+      <c r="C292">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D292" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="4"/>
+        <v>-2.2000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>96</v>
+      </c>
+      <c r="B293">
+        <v>125</v>
+      </c>
+      <c r="C293">
+        <v>0.125</v>
+      </c>
+      <c r="D293" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>97</v>
+      </c>
+      <c r="B294">
+        <v>105</v>
+      </c>
+      <c r="C294">
+        <v>0.105</v>
+      </c>
+      <c r="D294" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E294">
+        <f t="shared" ref="E294:E298" si="5">C294-C393</f>
+        <v>6.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>98</v>
+      </c>
+      <c r="B295">
+        <v>75</v>
+      </c>
+      <c r="C295">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D295" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>99</v>
+      </c>
+      <c r="B296">
+        <v>134</v>
+      </c>
+      <c r="C296">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D296" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="5"/>
+        <v>2.1000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>100</v>
+      </c>
+      <c r="B297">
+        <v>145</v>
+      </c>
+      <c r="C297">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D297" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="5"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>101</v>
+      </c>
+      <c r="B298">
+        <v>90</v>
+      </c>
+      <c r="C298">
+        <v>0.09</v>
+      </c>
+      <c r="D298" s="1">
+        <v>44132</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="5"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299">
+        <v>150</v>
+      </c>
+      <c r="C299">
+        <v>0.15</v>
+      </c>
+      <c r="D299" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300">
+        <v>195</v>
+      </c>
+      <c r="C300">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D300" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301">
+        <v>127</v>
+      </c>
+      <c r="C301">
+        <v>0.127</v>
+      </c>
+      <c r="D301" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>6</v>
+      </c>
+      <c r="B302">
+        <v>124</v>
+      </c>
+      <c r="C302">
+        <v>0.124</v>
+      </c>
+      <c r="D302" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303">
+        <v>112</v>
+      </c>
+      <c r="C303">
+        <v>0.112</v>
+      </c>
+      <c r="D303" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304">
+        <v>193</v>
+      </c>
+      <c r="C304">
+        <v>0.193</v>
+      </c>
+      <c r="D304" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>9</v>
+      </c>
+      <c r="B305">
+        <v>71</v>
+      </c>
+      <c r="C305">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D305" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306">
+        <v>134</v>
+      </c>
+      <c r="C306">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D306" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307">
+        <v>110</v>
+      </c>
+      <c r="C307">
+        <v>0.11</v>
+      </c>
+      <c r="D307" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308">
+        <v>77</v>
+      </c>
+      <c r="C308">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D308" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309">
+        <v>128</v>
+      </c>
+      <c r="C309">
+        <v>0.128</v>
+      </c>
+      <c r="D309" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310">
+        <v>183</v>
+      </c>
+      <c r="C310">
+        <v>0.183</v>
+      </c>
+      <c r="D310" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311">
+        <v>196</v>
+      </c>
+      <c r="C311">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D311" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>16</v>
+      </c>
+      <c r="B312">
+        <v>101</v>
+      </c>
+      <c r="C312">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D312" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>17</v>
+      </c>
+      <c r="B313">
+        <v>113</v>
+      </c>
+      <c r="C313">
+        <v>0.113</v>
+      </c>
+      <c r="D313" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>18</v>
+      </c>
+      <c r="B314">
+        <v>111</v>
+      </c>
+      <c r="C314">
+        <v>0.111</v>
+      </c>
+      <c r="D314" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>19</v>
+      </c>
+      <c r="B315">
+        <v>85</v>
+      </c>
+      <c r="C315">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D315" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>20</v>
+      </c>
+      <c r="B316">
+        <v>68</v>
+      </c>
+      <c r="C316">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D316" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>21</v>
+      </c>
+      <c r="B317">
+        <v>120</v>
+      </c>
+      <c r="C317">
+        <v>0.12</v>
+      </c>
+      <c r="D317" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>22</v>
+      </c>
+      <c r="B318">
+        <v>77</v>
+      </c>
+      <c r="C318">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D318" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319">
+        <v>166</v>
+      </c>
+      <c r="C319">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D319" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320">
+        <v>198</v>
+      </c>
+      <c r="C320">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D320" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>25</v>
+      </c>
+      <c r="B321">
+        <v>137</v>
+      </c>
+      <c r="C321">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D321" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>26</v>
+      </c>
+      <c r="B322">
+        <v>95</v>
+      </c>
+      <c r="C322">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D322" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>27</v>
+      </c>
+      <c r="B323">
+        <v>92</v>
+      </c>
+      <c r="C323">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D323" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>28</v>
+      </c>
+      <c r="B324">
+        <v>143</v>
+      </c>
+      <c r="C324">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D324" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>29</v>
+      </c>
+      <c r="B325">
+        <v>101</v>
+      </c>
+      <c r="C325">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D325" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>30</v>
+      </c>
+      <c r="B326">
+        <v>60</v>
+      </c>
+      <c r="C326">
+        <v>0.06</v>
+      </c>
+      <c r="D326" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>31</v>
+      </c>
+      <c r="B327">
+        <v>84</v>
+      </c>
+      <c r="C327">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D327" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>32</v>
+      </c>
+      <c r="B328">
+        <v>96</v>
+      </c>
+      <c r="C328">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D328" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>33</v>
+      </c>
+      <c r="B329">
+        <v>154</v>
+      </c>
+      <c r="C329">
+        <v>0.154</v>
+      </c>
+      <c r="D329" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>34</v>
+      </c>
+      <c r="B330">
+        <v>75</v>
+      </c>
+      <c r="C330">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D330" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>35</v>
+      </c>
+      <c r="B331">
+        <v>100</v>
+      </c>
+      <c r="C331">
+        <v>0.1</v>
+      </c>
+      <c r="D331" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>36</v>
+      </c>
+      <c r="B332">
+        <v>109</v>
+      </c>
+      <c r="C332">
+        <v>0.109</v>
+      </c>
+      <c r="D332" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>37</v>
+      </c>
+      <c r="B333">
+        <v>137</v>
+      </c>
+      <c r="C333">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D333" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>38</v>
+      </c>
+      <c r="B334">
+        <v>78</v>
+      </c>
+      <c r="C334">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D334" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>39</v>
+      </c>
+      <c r="B335">
+        <v>90</v>
+      </c>
+      <c r="C335">
+        <v>0.09</v>
+      </c>
+      <c r="D335" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>40</v>
+      </c>
+      <c r="B336">
+        <v>118</v>
+      </c>
+      <c r="C336">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D336" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>41</v>
+      </c>
+      <c r="B337">
+        <v>115</v>
+      </c>
+      <c r="C337">
+        <v>0.115</v>
+      </c>
+      <c r="D337" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>42</v>
+      </c>
+      <c r="B338">
+        <v>111</v>
+      </c>
+      <c r="C338">
+        <v>0.111</v>
+      </c>
+      <c r="D338" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>43</v>
+      </c>
+      <c r="B339">
+        <v>222</v>
+      </c>
+      <c r="C339">
+        <v>0.222</v>
+      </c>
+      <c r="D339" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>44</v>
+      </c>
+      <c r="B340">
+        <v>154</v>
+      </c>
+      <c r="C340">
+        <v>0.154</v>
+      </c>
+      <c r="D340" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>45</v>
+      </c>
+      <c r="B341">
+        <v>73</v>
+      </c>
+      <c r="C341">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D341" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>46</v>
+      </c>
+      <c r="B342">
+        <v>134</v>
+      </c>
+      <c r="C342">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D342" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>47</v>
+      </c>
+      <c r="B343">
+        <v>173</v>
+      </c>
+      <c r="C343">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D343" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>48</v>
+      </c>
+      <c r="B344">
+        <v>67</v>
+      </c>
+      <c r="C344">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D344" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>49</v>
+      </c>
+      <c r="B345">
+        <v>77</v>
+      </c>
+      <c r="C345">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D345" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>50</v>
+      </c>
+      <c r="B346">
+        <v>69</v>
+      </c>
+      <c r="C346">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D346" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>51</v>
+      </c>
+      <c r="B347">
+        <v>74</v>
+      </c>
+      <c r="C347">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D347" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>52</v>
+      </c>
+      <c r="B348">
+        <v>100</v>
+      </c>
+      <c r="C348">
+        <v>0.1</v>
+      </c>
+      <c r="D348" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>53</v>
+      </c>
+      <c r="B349">
+        <v>113</v>
+      </c>
+      <c r="C349">
+        <v>0.113</v>
+      </c>
+      <c r="D349" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>54</v>
+      </c>
+      <c r="B350">
+        <v>88</v>
+      </c>
+      <c r="C350">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D350" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>55</v>
+      </c>
+      <c r="B351">
+        <v>100</v>
+      </c>
+      <c r="C351">
+        <v>0.1</v>
+      </c>
+      <c r="D351" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>56</v>
+      </c>
+      <c r="B352">
+        <v>190</v>
+      </c>
+      <c r="C352">
+        <v>0.19</v>
+      </c>
+      <c r="D352" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>57</v>
+      </c>
+      <c r="B353">
+        <v>216</v>
+      </c>
+      <c r="C353">
+        <v>0.216</v>
+      </c>
+      <c r="D353" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>58</v>
+      </c>
+      <c r="B354">
+        <v>95</v>
+      </c>
+      <c r="C354">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D354" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>59</v>
+      </c>
+      <c r="B355">
+        <v>76</v>
+      </c>
+      <c r="C355">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D355" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>60</v>
+      </c>
+      <c r="B356">
+        <v>112</v>
+      </c>
+      <c r="C356">
+        <v>0.112</v>
+      </c>
+      <c r="D356" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>61</v>
+      </c>
+      <c r="B357">
+        <v>78</v>
+      </c>
+      <c r="C357">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D357" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>62</v>
+      </c>
+      <c r="B358">
+        <v>87</v>
+      </c>
+      <c r="C358">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D358" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>63</v>
+      </c>
+      <c r="B359">
+        <v>103</v>
+      </c>
+      <c r="C359">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D359" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>64</v>
+      </c>
+      <c r="B360">
+        <v>49</v>
+      </c>
+      <c r="C360">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D360" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>65</v>
+      </c>
+      <c r="B361">
+        <v>96</v>
+      </c>
+      <c r="C361">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D361" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>66</v>
+      </c>
+      <c r="B362">
+        <v>59</v>
+      </c>
+      <c r="C362">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D362" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>67</v>
+      </c>
+      <c r="B363">
+        <v>144</v>
+      </c>
+      <c r="C363">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D363" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>68</v>
+      </c>
+      <c r="B364">
+        <v>112</v>
+      </c>
+      <c r="C364">
+        <v>0.112</v>
+      </c>
+      <c r="D364" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>69</v>
+      </c>
+      <c r="B365">
+        <v>122</v>
+      </c>
+      <c r="C365">
+        <v>0.122</v>
+      </c>
+      <c r="D365" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>70</v>
+      </c>
+      <c r="B366">
+        <v>215</v>
+      </c>
+      <c r="C366">
+        <v>0.215</v>
+      </c>
+      <c r="D366" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>71</v>
+      </c>
+      <c r="B367">
+        <v>131</v>
+      </c>
+      <c r="C367">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D367" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>72</v>
+      </c>
+      <c r="B368">
+        <v>76</v>
+      </c>
+      <c r="C368">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D368" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>73</v>
+      </c>
+      <c r="B369">
+        <v>81</v>
+      </c>
+      <c r="C369">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D369" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>74</v>
+      </c>
+      <c r="B370">
+        <v>122</v>
+      </c>
+      <c r="C370">
+        <v>0.122</v>
+      </c>
+      <c r="D370" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>75</v>
+      </c>
+      <c r="B371">
+        <v>140</v>
+      </c>
+      <c r="C371">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D371" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>76</v>
+      </c>
+      <c r="B372">
+        <v>70</v>
+      </c>
+      <c r="C372">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D372" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>77</v>
+      </c>
+      <c r="B373">
+        <v>98</v>
+      </c>
+      <c r="C373">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D373" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>78</v>
+      </c>
+      <c r="B374">
+        <v>144</v>
+      </c>
+      <c r="C374">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D374" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>79</v>
+      </c>
+      <c r="B375">
+        <v>118</v>
+      </c>
+      <c r="C375">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D375" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>80</v>
+      </c>
+      <c r="B376">
+        <v>87</v>
+      </c>
+      <c r="C376">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D376" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>81</v>
+      </c>
+      <c r="B377">
+        <v>113</v>
+      </c>
+      <c r="C377">
+        <v>0.113</v>
+      </c>
+      <c r="D377" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>82</v>
+      </c>
+      <c r="B378">
+        <v>129</v>
+      </c>
+      <c r="C378">
+        <v>0.129</v>
+      </c>
+      <c r="D378" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>83</v>
+      </c>
+      <c r="B379">
+        <v>168</v>
+      </c>
+      <c r="C379">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D379" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>84</v>
+      </c>
+      <c r="B380">
+        <v>62</v>
+      </c>
+      <c r="C380">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D380" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>85</v>
+      </c>
+      <c r="B381">
+        <v>131</v>
+      </c>
+      <c r="C381">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D381" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>86</v>
+      </c>
+      <c r="B382">
+        <v>101</v>
+      </c>
+      <c r="C382">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D382" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>87</v>
+      </c>
+      <c r="B383">
+        <v>154</v>
+      </c>
+      <c r="C383">
+        <v>0.154</v>
+      </c>
+      <c r="D383" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>88</v>
+      </c>
+      <c r="B384">
+        <v>83</v>
+      </c>
+      <c r="C384">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D384" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>89</v>
+      </c>
+      <c r="B385">
+        <v>122</v>
+      </c>
+      <c r="C385">
+        <v>0.122</v>
+      </c>
+      <c r="D385" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>90</v>
+      </c>
+      <c r="B386">
+        <v>122</v>
+      </c>
+      <c r="C386">
+        <v>0.122</v>
+      </c>
+      <c r="D386" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>91</v>
+      </c>
+      <c r="B387">
+        <v>143</v>
+      </c>
+      <c r="C387">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D387" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>92</v>
+      </c>
+      <c r="B388">
+        <v>150</v>
+      </c>
+      <c r="C388">
+        <v>0.15</v>
+      </c>
+      <c r="D388" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>93</v>
+      </c>
+      <c r="B389">
+        <v>131</v>
+      </c>
+      <c r="C389">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D389" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>94</v>
+      </c>
+      <c r="B390">
+        <v>163</v>
+      </c>
+      <c r="C390">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D390" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>95</v>
+      </c>
+      <c r="B391">
+        <v>69</v>
+      </c>
+      <c r="C391">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D391" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>96</v>
+      </c>
+      <c r="B392">
+        <v>110</v>
+      </c>
+      <c r="C392">
+        <v>0.11</v>
+      </c>
+      <c r="D392" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>97</v>
+      </c>
+      <c r="B393">
+        <v>98</v>
+      </c>
+      <c r="C393">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D393" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>98</v>
+      </c>
+      <c r="B394">
+        <v>68</v>
+      </c>
+      <c r="C394">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D394" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>99</v>
+      </c>
+      <c r="B395">
+        <v>113</v>
+      </c>
+      <c r="C395">
+        <v>0.113</v>
+      </c>
+      <c r="D395" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>100</v>
+      </c>
+      <c r="B396">
+        <v>148</v>
+      </c>
+      <c r="C396">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D396" s="1">
+        <v>44131</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>101</v>
+      </c>
+      <c r="B397">
+        <v>76</v>
+      </c>
+      <c r="C397">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D397" s="1">
         <v>44131</v>
       </c>
     </row>
